--- a/biology/Zoologie/Hydrophis_curtus/Hydrophis_curtus.xlsx
+++ b/biology/Zoologie/Hydrophis_curtus/Hydrophis_curtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis curtus ou Lapémide court est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis curtus ou Lapémide court est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans le nord de l'océan Indien et l'Ouest du océan Pacifique dans les eaux des Émirats arabes unis, du Sultanat d'Oman, de l'Iran, du Pakistan, de l'Inde, du Sri Lanka, de la Birmanie, de la Thaïlande, de la Malaisie, du Viêt Nam, de la République populaire de Chine, de Taïwan, du Japon, des Philippines, de l'Indonésie, de la Papouasie-Nouvelle-Guinée et du nord de l'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans le nord de l'océan Indien et l'Ouest du océan Pacifique dans les eaux des Émirats arabes unis, du Sultanat d'Oman, de l'Iran, du Pakistan, de l'Inde, du Sri Lanka, de la Birmanie, de la Thaïlande, de la Malaisie, du Viêt Nam, de la République populaire de Chine, de Taïwan, du Japon, des Philippines, de l'Indonésie, de la Papouasie-Nouvelle-Guinée et du nord de l'Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis curtus[2] mesure jusqu'à 110 cm. Cette espèce a la face dorsale verdâtre ou jaunâtre avec des bandes noires encerclant le corps ou se rétrécissant latéralement. Sa face ventrale est blanchâtre[1]. C'est un serpent marin venimeux[1] vivant sur les fonds sablonneux ou vaseux[2]. C'est l'une des espèces les plus souvent capturées. Elle est parfois commercialisée en Thaïlande[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis curtus mesure jusqu'à 110 cm. Cette espèce a la face dorsale verdâtre ou jaunâtre avec des bandes noires encerclant le corps ou se rétrécissant latéralement. Sa face ventrale est blanchâtre. C'est un serpent marin venimeux vivant sur les fonds sablonneux ou vaseux. C'est l'une des espèces les plus souvent capturées. Elle est parfois commercialisée en Thaïlande.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shaw, 1802 : General Zoology, or Systematic Natural History, vol. 3, n. 2, p. 313-615 (texte intégral).</t>
         </is>
